--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W20_H100_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W20_H100_B32.xlsx
@@ -502,23 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5495495495495496</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
+        <v>0.5481927710843374</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9945355191256831</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5495495495495496</v>
+        <v>0.5465465465465466</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7093023255813954</v>
+        <v>0.7067961165048544</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4684684684684685</v>
+        <v>0.4804804804804805</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1070390377511631</v>
+        <v>0.0562196935249028</v>
       </c>
       <c r="J2" t="n">
-        <v>1395.515629220474</v>
+        <v>740.4934345396325</v>
       </c>
       <c r="K2" t="n">
-        <v>2606879.510100544</v>
+        <v>807865.5824474425</v>
       </c>
       <c r="L2" t="n">
-        <v>1614.583385923609</v>
+        <v>898.8134302776314</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5153084407794727</v>
+        <v>0.8497952715958291</v>
       </c>
     </row>
   </sheetData>
